--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2022.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2022.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.154825548887142</v>
+        <v>1.138055562973022</v>
       </c>
       <c r="B1">
-        <v>2.335740820502146</v>
+        <v>2.585058689117432</v>
       </c>
       <c r="C1">
-        <v>7.288250590237608</v>
+        <v>6.919022083282471</v>
       </c>
       <c r="D1">
-        <v>2.395218737962878</v>
+        <v>2.091269731521606</v>
       </c>
       <c r="E1">
-        <v>1.226044263431508</v>
+        <v>1.235441565513611</v>
       </c>
     </row>
   </sheetData>
